--- a/Python/resultados/HW_C017_120.xlsx
+++ b/Python/resultados/HW_C017_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.640625</v>
+        <v>27.64330152387554</v>
       </c>
       <c r="C2" t="n">
-        <v>30.1875</v>
+        <v>30.18409227405678</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.640625</v>
+        <v>27.6388194136901</v>
       </c>
       <c r="C3" t="n">
-        <v>30.140625</v>
+        <v>30.14679154490338</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.65625</v>
+        <v>27.65746032602065</v>
       </c>
       <c r="C4" t="n">
-        <v>30.171875</v>
+        <v>30.17788033786534</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.609375</v>
+        <v>27.61541982907814</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1875</v>
+        <v>30.19340504797643</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.609375</v>
+        <v>27.6133364115809</v>
       </c>
       <c r="C6" t="n">
-        <v>30.171875</v>
+        <v>30.17548416185557</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.609375</v>
+        <v>27.6111291900843</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1875</v>
+        <v>30.18267121769808</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.640625</v>
+        <v>27.63400777090692</v>
       </c>
       <c r="C8" t="n">
-        <v>30.171875</v>
+        <v>30.16462014897921</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.65625</v>
+        <v>27.65835848296324</v>
       </c>
       <c r="C9" t="n">
-        <v>30.171875</v>
+        <v>30.17191001769045</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.625</v>
+        <v>27.61881785038445</v>
       </c>
       <c r="C10" t="n">
-        <v>30.171875</v>
+        <v>30.16487577435396</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.640625</v>
+        <v>27.63769825191305</v>
       </c>
       <c r="C11" t="n">
-        <v>30.171875</v>
+        <v>30.17422750189417</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.625</v>
+        <v>27.63283490504973</v>
       </c>
       <c r="C12" t="n">
-        <v>30.171875</v>
+        <v>30.17359580272734</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.71875</v>
+        <v>19.71954964720373</v>
       </c>
       <c r="C2" t="n">
-        <v>26.75</v>
+        <v>26.74317763887622</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.71875</v>
+        <v>19.72047349950375</v>
       </c>
       <c r="C3" t="n">
-        <v>26.71875</v>
+        <v>26.71779814047028</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.734375</v>
+        <v>19.72700060860124</v>
       </c>
       <c r="C4" t="n">
-        <v>26.71875</v>
+        <v>26.71905242006973</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.734375</v>
+        <v>19.74216498042597</v>
       </c>
       <c r="C5" t="n">
-        <v>26.71875</v>
+        <v>26.72443608683247</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.75</v>
+        <v>19.74778316055646</v>
       </c>
       <c r="C6" t="n">
-        <v>26.765625</v>
+        <v>26.76175223935482</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.75</v>
+        <v>19.74467392601867</v>
       </c>
       <c r="C7" t="n">
-        <v>26.734375</v>
+        <v>26.72791028781838</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.71875</v>
+        <v>19.71769075644981</v>
       </c>
       <c r="C8" t="n">
-        <v>26.703125</v>
+        <v>26.7101891381126</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.75</v>
+        <v>19.7475168699232</v>
       </c>
       <c r="C9" t="n">
-        <v>26.734375</v>
+        <v>26.72877213239066</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.734375</v>
+        <v>19.73329653627579</v>
       </c>
       <c r="C10" t="n">
-        <v>26.78125</v>
+        <v>26.77725931346652</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.734375</v>
+        <v>19.73767604810264</v>
       </c>
       <c r="C11" t="n">
-        <v>26.75</v>
+        <v>26.74962482809111</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.734375</v>
+        <v>19.73378260330612</v>
       </c>
       <c r="C12" t="n">
-        <v>26.734375</v>
+        <v>26.73599722254828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.84612988285806</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.41504394480652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.81461750231181</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.46399440157916</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.8344562335508</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.4486173816412</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.8358983617873</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.48508168049317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.8227928762877</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.43749951796696</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.82265100569516</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.43158318782671</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.82030694092514</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.45498149451899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.83351771380503</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.48882317938185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.8295499738282</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.48983256651341</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.83102723393659</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.48930892665396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.82909477249858</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.46047662813819</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C017_120.xlsx
+++ b/Python/resultados/HW_C017_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.64330152387554</v>
+        <v>27.62255115134589</v>
       </c>
       <c r="C2" t="n">
-        <v>30.18409227405678</v>
+        <v>29.93256963034784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6388194136901</v>
+        <v>27.60707422963498</v>
       </c>
       <c r="C3" t="n">
-        <v>30.14679154490338</v>
+        <v>29.94122657403026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.65746032602065</v>
+        <v>27.62306503157641</v>
       </c>
       <c r="C4" t="n">
-        <v>30.17788033786534</v>
+        <v>29.97416284828283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.61541982907814</v>
+        <v>27.60616732129732</v>
       </c>
       <c r="C5" t="n">
-        <v>30.19340504797643</v>
+        <v>29.95164715338845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.6133364115809</v>
+        <v>27.60213676552733</v>
       </c>
       <c r="C6" t="n">
-        <v>30.17548416185557</v>
+        <v>29.97624006148319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6111291900843</v>
+        <v>27.63458644029293</v>
       </c>
       <c r="C7" t="n">
-        <v>30.18267121769808</v>
+        <v>29.97546539490484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.63400777090692</v>
+        <v>27.59956342976039</v>
       </c>
       <c r="C8" t="n">
-        <v>30.16462014897921</v>
+        <v>29.96223137930503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.65835848296324</v>
+        <v>27.6303883290899</v>
       </c>
       <c r="C9" t="n">
-        <v>30.17191001769045</v>
+        <v>29.97985750529905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.61881785038445</v>
+        <v>27.58007418012268</v>
       </c>
       <c r="C10" t="n">
-        <v>30.16487577435396</v>
+        <v>29.96640279206242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.63769825191305</v>
+        <v>27.64660357968289</v>
       </c>
       <c r="C11" t="n">
-        <v>30.17422750189417</v>
+        <v>29.97885263396768</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.63283490504973</v>
+        <v>27.61522104583307</v>
       </c>
       <c r="C12" t="n">
-        <v>30.17359580272734</v>
+        <v>29.96386559730716</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.71954964720373</v>
+        <v>19.73626406716477</v>
       </c>
       <c r="C2" t="n">
-        <v>26.74317763887622</v>
+        <v>26.77869325068998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.72047349950375</v>
+        <v>19.71376546007914</v>
       </c>
       <c r="C3" t="n">
-        <v>26.71779814047028</v>
+        <v>26.7432427556712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.72700060860124</v>
+        <v>19.73180231998506</v>
       </c>
       <c r="C4" t="n">
-        <v>26.71905242006973</v>
+        <v>26.79282029396019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.74216498042597</v>
+        <v>19.68864522651385</v>
       </c>
       <c r="C5" t="n">
-        <v>26.72443608683247</v>
+        <v>26.76271522637571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.74778316055646</v>
+        <v>19.71758351508478</v>
       </c>
       <c r="C6" t="n">
-        <v>26.76175223935482</v>
+        <v>26.80726110502393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.74467392601867</v>
+        <v>19.69758103777424</v>
       </c>
       <c r="C7" t="n">
-        <v>26.72791028781838</v>
+        <v>26.71545803224972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.71769075644981</v>
+        <v>19.7008796529013</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7101891381126</v>
+        <v>26.7691591662143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7475168699232</v>
+        <v>19.70283581960065</v>
       </c>
       <c r="C9" t="n">
-        <v>26.72877213239066</v>
+        <v>26.81484375085085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.73329653627579</v>
+        <v>19.7153506279143</v>
       </c>
       <c r="C10" t="n">
-        <v>26.77725931346652</v>
+        <v>26.77506201169315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.73767604810264</v>
+        <v>19.70090055591832</v>
       </c>
       <c r="C11" t="n">
-        <v>26.74962482809111</v>
+        <v>26.79691322174576</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.73378260330612</v>
+        <v>19.71056082829364</v>
       </c>
       <c r="C12" t="n">
-        <v>26.73599722254828</v>
+        <v>26.77561688144748</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.84612988285806</v>
+        <v>14.70839733236271</v>
       </c>
       <c r="C2" t="n">
-        <v>21.41504394480652</v>
+        <v>21.40486654949476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.81461750231181</v>
+        <v>14.71576074376576</v>
       </c>
       <c r="C3" t="n">
-        <v>21.46399440157916</v>
+        <v>21.36575608612224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.8344562335508</v>
+        <v>14.71438766487775</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4486173816412</v>
+        <v>21.40588918474436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8358983617873</v>
+        <v>14.72559432362701</v>
       </c>
       <c r="C5" t="n">
-        <v>21.48508168049317</v>
+        <v>21.43752019339114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8227928762877</v>
+        <v>14.72253718223117</v>
       </c>
       <c r="C6" t="n">
-        <v>21.43749951796696</v>
+        <v>21.39503518784375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.82265100569516</v>
+        <v>14.69908148781415</v>
       </c>
       <c r="C7" t="n">
-        <v>21.43158318782671</v>
+        <v>21.38167857046971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.82030694092514</v>
+        <v>14.70370540700552</v>
       </c>
       <c r="C8" t="n">
-        <v>21.45498149451899</v>
+        <v>21.33820974984896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.83351771380503</v>
+        <v>14.70645596129224</v>
       </c>
       <c r="C9" t="n">
-        <v>21.48882317938185</v>
+        <v>21.38578734474979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8295499738282</v>
+        <v>14.73039107767457</v>
       </c>
       <c r="C10" t="n">
-        <v>21.48983256651341</v>
+        <v>21.3767082833361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.83102723393659</v>
+        <v>14.71580268507553</v>
       </c>
       <c r="C11" t="n">
-        <v>21.48930892665396</v>
+        <v>21.33780149540972</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.82909477249858</v>
+        <v>14.71421138657264</v>
       </c>
       <c r="C12" t="n">
-        <v>21.46047662813819</v>
+        <v>21.38292526454105</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C017_120.xlsx
+++ b/Python/resultados/HW_C017_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>29.93256963034784</v>
       </c>
+      <c r="D2" t="n">
+        <v>29.69357783335708</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>29.94122657403026</v>
       </c>
+      <c r="D3" t="n">
+        <v>29.7012518228316</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>29.97416284828283</v>
       </c>
+      <c r="D4" t="n">
+        <v>29.71273477218701</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>29.95164715338845</v>
       </c>
+      <c r="D5" t="n">
+        <v>29.69022791072327</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>29.97624006148319</v>
       </c>
+      <c r="D6" t="n">
+        <v>29.72414737071618</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>29.97546539490484</v>
       </c>
+      <c r="D7" t="n">
+        <v>29.72584504152548</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>29.96223137930503</v>
       </c>
+      <c r="D8" t="n">
+        <v>29.70886457573662</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>29.97985750529905</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.69945945751915</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>29.96640279206242</v>
       </c>
+      <c r="D10" t="n">
+        <v>29.70921002148164</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>29.97885263396768</v>
       </c>
+      <c r="D11" t="n">
+        <v>29.7246117715103</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>29.96386559730716</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.70899305775883</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>26.77869325068998</v>
       </c>
+      <c r="D2" t="n">
+        <v>25.15404339271227</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>26.7432427556712</v>
       </c>
+      <c r="D3" t="n">
+        <v>25.12498745514058</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>26.79282029396019</v>
       </c>
+      <c r="D4" t="n">
+        <v>25.19778215369679</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>26.76271522637571</v>
       </c>
+      <c r="D5" t="n">
+        <v>25.1670983103959</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>26.80726110502393</v>
       </c>
+      <c r="D6" t="n">
+        <v>25.19844555747287</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>26.71545803224972</v>
       </c>
+      <c r="D7" t="n">
+        <v>25.12385220514542</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>26.7691591662143</v>
       </c>
+      <c r="D8" t="n">
+        <v>25.15934179973322</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>26.81484375085085</v>
       </c>
+      <c r="D9" t="n">
+        <v>25.21450845676011</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>26.77506201169315</v>
       </c>
+      <c r="D10" t="n">
+        <v>25.18276889173693</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>26.79691322174576</v>
       </c>
+      <c r="D11" t="n">
+        <v>25.20275032077866</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>26.77561688144748</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.17255785435727</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>21.40486654949476</v>
       </c>
+      <c r="D2" t="n">
+        <v>19.38164457769648</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>21.36575608612224</v>
       </c>
+      <c r="D3" t="n">
+        <v>19.36904132983518</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>21.40588918474436</v>
       </c>
+      <c r="D4" t="n">
+        <v>19.38559921478277</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>21.43752019339114</v>
       </c>
+      <c r="D5" t="n">
+        <v>19.40094422710464</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>21.39503518784375</v>
       </c>
+      <c r="D6" t="n">
+        <v>19.38234878940462</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>21.38167857046971</v>
       </c>
+      <c r="D7" t="n">
+        <v>19.36654443244201</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>21.33820974984896</v>
       </c>
+      <c r="D8" t="n">
+        <v>19.34284678238681</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>21.38578734474979</v>
       </c>
+      <c r="D9" t="n">
+        <v>19.3727066581523</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>21.3767082833361</v>
       </c>
+      <c r="D10" t="n">
+        <v>19.36666719218725</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>21.33780149540972</v>
       </c>
+      <c r="D11" t="n">
+        <v>19.34163859029164</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>21.38292526454105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.37099817942837</v>
       </c>
     </row>
   </sheetData>
